--- a/results/examples/example_result_raw_data.xlsx
+++ b/results/examples/example_result_raw_data.xlsx
@@ -78,7 +78,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">test.name</t>
+    <t xml:space="preserve">test.case.name</t>
   </si>
   <si>
     <t xml:space="preserve">TC.result</t>
@@ -1016,7 +1016,7 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="date"/>
     <tableColumn id="3" name="test.group"/>
-    <tableColumn id="4" name="test.name"/>
+    <tableColumn id="4" name="test.case.name"/>
     <tableColumn id="5" name="TC.result"/>
     <tableColumn id="6" name="TC.success.rate"/>
     <tableColumn id="7" name="nb"/>
@@ -1687,7 +1687,7 @@
     <col min="10" max="10" width="5.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="7.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="11.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="11.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="6.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="11.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="7.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.127</v>
+        <v>0.122</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -1847,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00199999999999889</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.016</v>
+        <v>0.0150000000000006</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00299999999999923</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2161,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.152</v>
+        <v>0.144</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.153</v>
+        <v>0.144000000000002</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
@@ -2202,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.052</v>
+        <v>0.0559999999999998</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0510000000000002</v>
+        <v>0.0559999999999974</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00499999999999989</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
@@ -2344,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0369999999999999</v>
+        <v>0.0309999999999988</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00899999999999945</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -2516,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -2557,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -2587,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
@@ -2628,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
@@ -2699,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
@@ -2770,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.168</v>
+        <v>0.152</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.167000000000001</v>
+        <v>0.152999999999999</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
@@ -2841,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00999999999999979</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
@@ -2912,7 +2912,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2983,7 +2983,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0169999999999995</v>
+        <v>0.0160000000000018</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
@@ -3054,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
@@ -3125,7 +3125,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
@@ -3196,7 +3196,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
@@ -3267,7 +3267,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -3297,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00799999999999956</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00700000000000056</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
@@ -3338,7 +3338,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.004</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
@@ -3409,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.004</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00600000000000023</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
@@ -3480,7 +3480,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00600000000000023</v>
+        <v>0.00900000000000034</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
@@ -3551,7 +3551,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -3581,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.004</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00299999999999923</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
@@ -3622,7 +3622,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.024</v>
+        <v>0.0189999999999984</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
@@ -3693,7 +3693,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.012</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.0129999999999981</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
@@ -3764,7 +3764,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0110000000000001</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
@@ -3835,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00700000000000056</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
@@ -3906,7 +3906,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O32" t="s">
         <v>42</v>
@@ -3977,7 +3977,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
@@ -4048,7 +4048,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0130000000000008</v>
+        <v>0.0130000000000017</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
@@ -4119,7 +4119,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.012</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0109999999999992</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
@@ -4190,7 +4190,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -4220,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.024</v>
+        <v>0.0119999999999996</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0250000000000004</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
@@ -4261,7 +4261,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -4291,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0309999999999997</v>
+        <v>0.032</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
@@ -4332,7 +4332,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0110000000000001</v>
+        <v>0.0139999999999993</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
@@ -4403,7 +4403,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0229999999999997</v>
+        <v>0.0209999999999972</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
@@ -4474,7 +4474,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0110000000000001</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
@@ -4545,7 +4545,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -4575,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0760000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0780000000000003</v>
+        <v>0.0110000000000028</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
@@ -4616,7 +4616,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -4646,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.012</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.0779999999999994</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
@@ -4687,7 +4687,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.00100000000000122</v>
       </c>
       <c r="O44" t="s">
         <v>42</v>
@@ -4829,7 +4829,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -4859,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O45" t="s">
         <v>42</v>
@@ -4900,7 +4900,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.000999999999997669</v>
       </c>
       <c r="O46" t="s">
         <v>42</v>
@@ -4971,7 +4971,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.00199999999999889</v>
       </c>
       <c r="O47" t="s">
         <v>42</v>
@@ -5042,7 +5042,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.00100000000000033</v>
+        <v>0.00100000000000122</v>
       </c>
       <c r="O48" t="s">
         <v>42</v>
@@ -5113,7 +5113,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -5143,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O49" t="s">
         <v>42</v>
@@ -5184,7 +5184,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -5214,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.00100000000000033</v>
+        <v>0.00100000000000122</v>
       </c>
       <c r="O50" t="s">
         <v>42</v>
@@ -5255,7 +5255,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -5285,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O51" t="s">
         <v>42</v>
@@ -5326,7 +5326,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -5397,7 +5397,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O53" t="s">
         <v>42</v>
@@ -5468,7 +5468,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0109999999999992</v>
+        <v>0.0129999999999981</v>
       </c>
       <c r="O54" t="s">
         <v>42</v>
@@ -5539,7 +5539,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0110000000000001</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O55" t="s">
         <v>42</v>
@@ -5610,7 +5610,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O56" t="s">
         <v>42</v>
@@ -5681,7 +5681,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O57" t="s">
         <v>42</v>
@@ -5752,7 +5752,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -5823,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.00599999999999934</v>
+        <v>0.00599999999999667</v>
       </c>
       <c r="O59" t="s">
         <v>42</v>
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00900000000000034</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O60" t="s">
         <v>42</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0100000000000007</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="O62" t="s">
         <v>42</v>
@@ -6107,7 +6107,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O63" t="s">
         <v>42</v>
@@ -6178,7 +6178,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0110000000000001</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O64" t="s">
         <v>42</v>
@@ -6249,7 +6249,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -6279,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.012</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.00999999999999979</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O65" t="s">
         <v>42</v>
@@ -6320,7 +6320,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -6350,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.0110000000000028</v>
       </c>
       <c r="O66" t="s">
         <v>42</v>
@@ -6391,7 +6391,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -6421,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.00999999999999979</v>
+        <v>0.0119999999999969</v>
       </c>
       <c r="O67" t="s">
         <v>42</v>
@@ -6462,7 +6462,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.012</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O68" t="s">
         <v>42</v>
@@ -6533,7 +6533,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.00400000000000045</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.00700000000000056</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O70" t="s">
         <v>42</v>
@@ -6675,7 +6675,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.004</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O71" t="s">
         <v>42</v>
@@ -6746,7 +6746,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -6776,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.004</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O72" t="s">
         <v>42</v>
@@ -6817,7 +6817,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -6847,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.004</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O73" t="s">
         <v>42</v>
@@ -6888,7 +6888,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -6918,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.00600000000000023</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O74" t="s">
         <v>42</v>
@@ -6959,7 +6959,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -6989,13 +6989,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.00699999999999967</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O75" t="s">
         <v>42</v>
@@ -7030,7 +7030,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.00499999999999989</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O76" t="s">
         <v>42</v>
@@ -7101,7 +7101,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.00799999999999912</v>
       </c>
       <c r="O77" t="s">
         <v>42</v>
@@ -7172,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.004</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.00599999999999934</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O79" t="s">
         <v>42</v>
@@ -7314,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -7344,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.004</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O80" t="s">
         <v>42</v>
@@ -7385,7 +7385,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -7415,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.004</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O81" t="s">
         <v>42</v>
@@ -7456,7 +7456,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.004</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O82" t="s">
         <v>42</v>
@@ -7527,7 +7527,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -7598,7 +7598,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -7628,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0199999999999996</v>
+        <v>0.016</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0209999999999999</v>
+        <v>0.0190000000000019</v>
       </c>
       <c r="O84" t="s">
         <v>42</v>
@@ -7669,7 +7669,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -7699,13 +7699,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0760000000000001</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0759999999999996</v>
+        <v>0.0790000000000006</v>
       </c>
       <c r="O85" t="s">
         <v>42</v>
@@ -7740,7 +7740,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -7770,13 +7770,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.044</v>
+        <v>0.0479999999999996</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0449999999999999</v>
+        <v>0.0470000000000006</v>
       </c>
       <c r="O86" t="s">
         <v>42</v>
@@ -7811,7 +7811,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -7841,13 +7841,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.044</v>
+        <v>0.052</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0449999999999999</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="O87" t="s">
         <v>42</v>
@@ -7882,7 +7882,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -7912,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.124</v>
+        <v>0.112</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.124</v>
+        <v>0.110999999999997</v>
       </c>
       <c r="O88" t="s">
         <v>42</v>
@@ -7953,7 +7953,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0389999999999997</v>
+        <v>0.0400000000000027</v>
       </c>
       <c r="O89" t="s">
         <v>42</v>
@@ -8024,7 +8024,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0799999999999996</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0790000000000006</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="O90" t="s">
         <v>42</v>
@@ -8095,7 +8095,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -8125,13 +8125,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.044</v>
+        <v>0.036</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0439999999999987</v>
+        <v>0.0390000000000015</v>
       </c>
       <c r="O91" t="s">
         <v>42</v>
@@ -8166,7 +8166,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0.043000000000001</v>
+        <v>0.0440000000000005</v>
       </c>
       <c r="O92" t="s">
         <v>42</v>
@@ -8237,7 +8237,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.111000000000001</v>
+        <v>0.109999999999999</v>
       </c>
       <c r="O93" t="s">
         <v>42</v>
@@ -8308,7 +8308,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O94" t="s">
         <v>42</v>
@@ -8379,7 +8379,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -8409,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04</v>
+        <v>0.052</v>
       </c>
       <c r="M95" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0510000000000002</v>
+        <v>0.0500000000000007</v>
       </c>
       <c r="O95" t="s">
         <v>42</v>
@@ -8450,7 +8450,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -8480,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0960000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0980000000000008</v>
+        <v>0.100999999999999</v>
       </c>
       <c r="O96" t="s">
         <v>42</v>
@@ -8521,7 +8521,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0359999999999996</v>
+        <v>0.0380000000000003</v>
       </c>
       <c r="O97" t="s">
         <v>42</v>
@@ -8592,7 +8592,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O98" t="s">
         <v>42</v>
@@ -8663,7 +8663,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0419999999999998</v>
+        <v>0.0389999999999979</v>
       </c>
       <c r="O99" t="s">
         <v>42</v>
@@ -8734,7 +8734,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -8764,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0390000000000015</v>
+        <v>0.0440000000000005</v>
       </c>
       <c r="O100" t="s">
         <v>42</v>
@@ -8805,7 +8805,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -8835,13 +8835,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0449999999999999</v>
+        <v>0.0429999999999993</v>
       </c>
       <c r="O101" t="s">
         <v>42</v>
@@ -8876,7 +8876,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04</v>
+        <v>0.0439999999999996</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -9048,13 +9048,13 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M104" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0.00699999999999967</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O104" t="s">
         <v>42</v>
@@ -9089,7 +9089,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -9160,7 +9160,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -9190,13 +9190,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0159999999999996</v>
+        <v>0.016</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0149999999999988</v>
+        <v>0.0150000000000006</v>
       </c>
       <c r="O106" t="s">
         <v>42</v>
@@ -9231,7 +9231,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
@@ -9261,13 +9261,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.024</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0240000000000009</v>
+        <v>0.0249999999999986</v>
       </c>
       <c r="O107" t="s">
         <v>42</v>
@@ -9302,7 +9302,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.016</v>
+        <v>0.0150000000000006</v>
       </c>
       <c r="O108" t="s">
         <v>42</v>
@@ -9373,7 +9373,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.012</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -9444,7 +9444,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.004</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
@@ -9545,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.004</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O111" t="s">
         <v>42</v>
@@ -9586,7 +9586,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
@@ -9616,13 +9616,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.028</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0259999999999998</v>
+        <v>0.0250000000000021</v>
       </c>
       <c r="O112" t="s">
         <v>42</v>
@@ -9657,7 +9657,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.02</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -9758,13 +9758,13 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.004</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00500000000000256</v>
       </c>
       <c r="O114" t="s">
         <v>42</v>
@@ -9799,7 +9799,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -9870,7 +9870,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -9941,7 +9941,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0220000000000002</v>
+        <v>0.0219999999999985</v>
       </c>
       <c r="O117" t="s">
         <v>42</v>
@@ -10012,7 +10012,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0150000000000006</v>
+        <v>0.0160000000000018</v>
       </c>
       <c r="O118" t="s">
         <v>42</v>
@@ -10083,7 +10083,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
@@ -10113,13 +10113,13 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0999999999999996</v>
+        <v>0.104</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0990000000000002</v>
+        <v>0.103999999999999</v>
       </c>
       <c r="O119" t="s">
         <v>42</v>
@@ -10154,7 +10154,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -10184,13 +10184,13 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0.048</v>
+        <v>0.0439999999999996</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0449999999999999</v>
+        <v>0.0449999999999982</v>
       </c>
       <c r="O120" t="s">
         <v>42</v>
@@ -10225,7 +10225,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -10255,13 +10255,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0329999999999995</v>
+        <v>0.0240000000000009</v>
       </c>
       <c r="O121" t="s">
         <v>42</v>
@@ -10296,7 +10296,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.0119999999999996</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0.027000000000001</v>
+        <v>0.0240000000000009</v>
       </c>
       <c r="O123" t="s">
         <v>42</v>
@@ -10438,7 +10438,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -10468,13 +10468,13 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.024</v>
+        <v>0.0200000000000005</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0229999999999997</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="O124" t="s">
         <v>42</v>
@@ -10509,7 +10509,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
@@ -10539,13 +10539,13 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0280000000000005</v>
+        <v>0.024</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0250000000000004</v>
+        <v>0.0240000000000009</v>
       </c>
       <c r="O125" t="s">
         <v>42</v>
@@ -10580,7 +10580,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>0.011000000000001</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="O126" t="s">
         <v>42</v>
@@ -10651,7 +10651,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0240000000000009</v>
+        <v>0.0249999999999986</v>
       </c>
       <c r="O127" t="s">
         <v>42</v>
@@ -10722,7 +10722,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0380000000000003</v>
+        <v>0.036999999999999</v>
       </c>
       <c r="O128" t="s">
         <v>42</v>
@@ -10793,7 +10793,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0109999999999992</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O130" t="s">
         <v>42</v>
@@ -10935,7 +10935,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
@@ -10965,13 +10965,13 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0199999999999996</v>
+        <v>0.016</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0179999999999989</v>
+        <v>0.0159999999999982</v>
       </c>
       <c r="O131" t="s">
         <v>42</v>
@@ -11006,7 +11006,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -11036,13 +11036,13 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0839999999999996</v>
+        <v>0.0880000000000001</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0840000000000014</v>
+        <v>0.0859999999999985</v>
       </c>
       <c r="O132" t="s">
         <v>42</v>
@@ -11077,7 +11077,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -11107,13 +11107,13 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0.00299999999999834</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O133" t="s">
         <v>42</v>
@@ -11148,7 +11148,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -11178,13 +11178,13 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.000999999999997669</v>
       </c>
       <c r="O134" t="s">
         <v>42</v>
@@ -11219,7 +11219,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
@@ -11249,13 +11249,13 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00199999999999889</v>
       </c>
       <c r="O135" t="s">
         <v>42</v>
@@ -11290,7 +11290,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0220000000000002</v>
+        <v>0.0209999999999972</v>
       </c>
       <c r="O136" t="s">
         <v>42</v>
@@ -11361,7 +11361,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0199999999999996</v>
+        <v>0.0200000000000005</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0229999999999997</v>
+        <v>0.0230000000000032</v>
       </c>
       <c r="O137" t="s">
         <v>42</v>
@@ -11432,7 +11432,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>0.00499999999999901</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O138" t="s">
         <v>42</v>
@@ -11503,7 +11503,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
@@ -11533,13 +11533,13 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O139" t="s">
         <v>42</v>
@@ -11574,7 +11574,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
@@ -11645,7 +11645,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -11675,13 +11675,13 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.104</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0.106</v>
+        <v>0.103000000000002</v>
       </c>
       <c r="O141" t="s">
         <v>42</v>
@@ -11716,7 +11716,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0280000000000005</v>
+        <v>0.0279999999999987</v>
       </c>
       <c r="O142" t="s">
         <v>42</v>
@@ -11787,7 +11787,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -11817,13 +11817,13 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.024</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0219999999999985</v>
+        <v>0.0210000000000008</v>
       </c>
       <c r="O143" t="s">
         <v>42</v>
@@ -11858,7 +11858,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -11891,10 +11891,10 @@
         <v>0.136</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="N144" t="n">
-        <v>0.137</v>
+        <v>0.141999999999999</v>
       </c>
       <c r="O144" t="s">
         <v>42</v>
@@ -11929,7 +11929,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0190000000000001</v>
+        <v>0.0190000000000019</v>
       </c>
       <c r="O145" t="s">
         <v>42</v>
@@ -12000,7 +12000,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0.027000000000001</v>
+        <v>0.0280000000000022</v>
       </c>
       <c r="O146" t="s">
         <v>42</v>
@@ -12071,7 +12071,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0200000000000005</v>
+        <v>0.024</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -12172,13 +12172,13 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
+        <v>0.0520000000000005</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
         <v>0.0519999999999996</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.0510000000000002</v>
       </c>
       <c r="O148" t="s">
         <v>42</v>
@@ -12213,7 +12213,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -12243,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.232</v>
+        <v>0.231999999999999</v>
       </c>
       <c r="M149" t="n">
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>0.234</v>
+        <v>0.233000000000001</v>
       </c>
       <c r="O149" t="s">
         <v>42</v>
@@ -12284,7 +12284,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
@@ -12314,13 +12314,13 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.056</v>
+        <v>0.0520000000000005</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0539999999999985</v>
+        <v>0.0500000000000007</v>
       </c>
       <c r="O150" t="s">
         <v>42</v>
@@ -12355,7 +12355,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
@@ -12385,13 +12385,13 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.048</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0500000000000007</v>
+        <v>0.0529999999999973</v>
       </c>
       <c r="O151" t="s">
         <v>42</v>
@@ -12426,7 +12426,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.054000000000002</v>
       </c>
       <c r="O152" t="s">
         <v>42</v>
@@ -12497,7 +12497,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0499999999999989</v>
+        <v>0.0489999999999995</v>
       </c>
       <c r="O153" t="s">
         <v>42</v>
@@ -12568,7 +12568,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -12598,13 +12598,13 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
+        <v>0.0520000000000005</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
         <v>0.0519999999999996</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.0520000000000014</v>
       </c>
       <c r="O154" t="s">
         <v>42</v>
@@ -12639,7 +12639,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0499999999999989</v>
+        <v>0.0539999999999985</v>
       </c>
       <c r="O155" t="s">
         <v>42</v>
@@ -12710,7 +12710,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.0500000000000007</v>
       </c>
       <c r="O156" t="s">
         <v>42</v>
@@ -12781,7 +12781,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
@@ -12811,13 +12811,13 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.048</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0489999999999995</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="O157" t="s">
         <v>42</v>
@@ -12852,7 +12852,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -12923,7 +12923,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -12953,13 +12953,13 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.056</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0510000000000002</v>
+        <v>0.0529999999999973</v>
       </c>
       <c r="O159" t="s">
         <v>42</v>
@@ -12994,7 +12994,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -13024,13 +13024,13 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0680000000000005</v>
+        <v>0.0679999999999996</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0660000000000007</v>
+        <v>0.0680000000000014</v>
       </c>
       <c r="O160" t="s">
         <v>42</v>
@@ -13065,7 +13065,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
@@ -13095,13 +13095,13 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0679999999999996</v>
+        <v>0.0680000000000005</v>
       </c>
       <c r="M161" t="n">
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0659999999999989</v>
+        <v>0.0670000000000002</v>
       </c>
       <c r="O161" t="s">
         <v>42</v>
@@ -13136,7 +13136,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0560000000000009</v>
+        <v>0.0570000000000022</v>
       </c>
       <c r="O162" t="s">
         <v>42</v>
@@ -13207,7 +13207,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C163" t="s">
         <v>15</v>
@@ -13237,13 +13237,13 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0.056</v>
+        <v>0.0599999999999996</v>
       </c>
       <c r="M163" t="n">
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0570000000000004</v>
+        <v>0.0589999999999975</v>
       </c>
       <c r="O163" t="s">
         <v>42</v>
@@ -13278,7 +13278,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C164" t="s">
         <v>15</v>
@@ -13308,13 +13308,13 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.168</v>
+        <v>0.184</v>
       </c>
       <c r="M164" t="n">
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>0.167</v>
+        <v>0.182000000000002</v>
       </c>
       <c r="O164" t="s">
         <v>42</v>
@@ -13349,7 +13349,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
@@ -13379,13 +13379,13 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>1.372</v>
+        <v>1.388</v>
       </c>
       <c r="M165" t="n">
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>1.372</v>
+        <v>1.388</v>
       </c>
       <c r="O165" t="s">
         <v>42</v>
@@ -13420,7 +13420,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0510000000000002</v>
+        <v>0.0530000000000008</v>
       </c>
       <c r="O166" t="s">
         <v>42</v>
@@ -13491,7 +13491,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
@@ -13521,13 +13521,13 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04</v>
+        <v>0.0440000000000005</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0400000000000009</v>
+        <v>0.041999999999998</v>
       </c>
       <c r="O167" t="s">
         <v>42</v>
@@ -13562,7 +13562,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
@@ -13592,13 +13592,13 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.024</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0239999999999991</v>
+        <v>0.0229999999999997</v>
       </c>
       <c r="O168" t="s">
         <v>42</v>
@@ -13633,7 +13633,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
@@ -13663,13 +13663,13 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0280000000000005</v>
+        <v>0.024</v>
       </c>
       <c r="M169" t="n">
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>0.027000000000001</v>
+        <v>0.0259999999999998</v>
       </c>
       <c r="O169" t="s">
         <v>42</v>
@@ -13704,7 +13704,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -13740,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0239999999999991</v>
+        <v>0.0219999999999985</v>
       </c>
       <c r="O170" t="s">
         <v>42</v>
@@ -13775,7 +13775,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0229999999999997</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="O171" t="s">
         <v>42</v>
@@ -13846,7 +13846,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -13882,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0229999999999997</v>
+        <v>0.0250000000000021</v>
       </c>
       <c r="O172" t="s">
         <v>42</v>
@@ -13917,7 +13917,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
@@ -13947,13 +13947,13 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0280000000000005</v>
+        <v>0.024</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0260000000000016</v>
+        <v>0.0229999999999997</v>
       </c>
       <c r="O173" t="s">
         <v>42</v>
@@ -13988,7 +13988,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -14018,13 +14018,13 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0.00299999999999834</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O174" t="s">
         <v>42</v>
@@ -14059,7 +14059,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -14089,13 +14089,13 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0.056</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="M175" t="n">
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0540000000000003</v>
+        <v>0.0500000000000007</v>
       </c>
       <c r="O175" t="s">
         <v>42</v>
@@ -14130,7 +14130,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C176" t="s">
         <v>15</v>
@@ -14160,13 +14160,13 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O176" t="s">
         <v>42</v>
@@ -14201,7 +14201,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -14231,13 +14231,13 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O177" t="s">
         <v>42</v>
@@ -14272,7 +14272,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -14302,13 +14302,13 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O178" t="s">
         <v>42</v>
@@ -14343,7 +14343,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
@@ -14414,7 +14414,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
@@ -14444,13 +14444,13 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.00799999999999912</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O180" t="s">
         <v>42</v>
@@ -14485,7 +14485,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -14515,13 +14515,13 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.00400000000000045</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O181" t="s">
         <v>42</v>
@@ -14556,7 +14556,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -14586,13 +14586,13 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0119999999999996</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O182" t="s">
         <v>42</v>
@@ -14627,7 +14627,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C183" t="s">
         <v>15</v>
@@ -14657,13 +14657,13 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0400000000000009</v>
+        <v>0.04</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0399999999999991</v>
+        <v>0.0410000000000004</v>
       </c>
       <c r="O183" t="s">
         <v>42</v>
@@ -14698,7 +14698,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -14728,13 +14728,13 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0119999999999996</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O184" t="s">
         <v>42</v>
@@ -14769,7 +14769,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -14799,13 +14799,13 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O185" t="s">
         <v>42</v>
@@ -14840,7 +14840,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
@@ -14870,13 +14870,13 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
         <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>0.000999999999999446</v>
+        <v>0.00100000000000122</v>
       </c>
       <c r="O186" t="s">
         <v>42</v>
@@ -14911,7 +14911,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
@@ -14941,13 +14941,13 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0.00199999999999889</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O187" t="s">
         <v>42</v>
@@ -14982,7 +14982,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -15012,13 +15012,13 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00400000000000045</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00500000000000256</v>
       </c>
       <c r="O188" t="s">
         <v>42</v>
@@ -15053,7 +15053,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
@@ -15083,13 +15083,13 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0119999999999996</v>
       </c>
       <c r="M189" t="n">
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0109999999999992</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="O189" t="s">
         <v>42</v>
@@ -15124,7 +15124,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C190" t="s">
         <v>15</v>
@@ -15154,13 +15154,13 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
+        <v>0.0119999999999996</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
         <v>0.0120000000000005</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.011000000000001</v>
       </c>
       <c r="O190" t="s">
         <v>42</v>
@@ -15195,7 +15195,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O191" t="s">
         <v>42</v>
@@ -15266,7 +15266,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C192" t="s">
         <v>15</v>
@@ -15296,13 +15296,13 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.016</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0.016</v>
+        <v>0.022000000000002</v>
       </c>
       <c r="O192" t="s">
         <v>42</v>
@@ -15337,7 +15337,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C193" t="s">
         <v>15</v>
@@ -15373,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0180000000000007</v>
+        <v>0.0169999999999995</v>
       </c>
       <c r="O193" t="s">
         <v>42</v>
@@ -15408,7 +15408,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C194" t="s">
         <v>15</v>
@@ -15438,13 +15438,13 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0199999999999996</v>
+        <v>0.016</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>0.020999999999999</v>
+        <v>0.0179999999999971</v>
       </c>
       <c r="O194" t="s">
         <v>42</v>
@@ -15479,7 +15479,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C195" t="s">
         <v>15</v>
@@ -15509,13 +15509,13 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0.048</v>
+        <v>0.0560000000000009</v>
       </c>
       <c r="M195" t="n">
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0489999999999995</v>
+        <v>0.0530000000000008</v>
       </c>
       <c r="O195" t="s">
         <v>42</v>
@@ -15550,7 +15550,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.0100000000000016</v>
       </c>
       <c r="O196" t="s">
         <v>42</v>
@@ -15621,7 +15621,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
@@ -15651,13 +15651,13 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.0119999999999987</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>0.00900000000000034</v>
+        <v>0.0130000000000017</v>
       </c>
       <c r="O197" t="s">
         <v>42</v>
@@ -15692,7 +15692,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -15763,7 +15763,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C199" t="s">
         <v>16</v>
@@ -15832,7 +15832,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
@@ -15903,7 +15903,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0299999999999994</v>
+        <v>0.0259999999999998</v>
       </c>
       <c r="O201" t="s">
         <v>42</v>
@@ -15972,7 +15972,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
@@ -16000,13 +16000,13 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00799999999999912</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O202" t="s">
         <v>42</v>
@@ -16041,7 +16041,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C203" t="s">
         <v>16</v>
@@ -16069,13 +16069,13 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O203" t="s">
         <v>42</v>
@@ -16110,7 +16110,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C204" t="s">
         <v>16</v>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O204" t="s">
         <v>42</v>
@@ -16179,7 +16179,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O205" t="s">
         <v>42</v>
@@ -16248,7 +16248,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C206" t="s">
         <v>16</v>
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00299999999999656</v>
       </c>
       <c r="O206" t="s">
         <v>42</v>
@@ -16317,7 +16317,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C207" t="s">
         <v>16</v>
@@ -16345,13 +16345,13 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M207" t="n">
         <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O207" t="s">
         <v>42</v>
@@ -16386,7 +16386,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C208" t="s">
         <v>16</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M208" t="n">
         <v>0</v>
@@ -16455,7 +16455,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C209" t="s">
         <v>16</v>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O209" t="s">
         <v>42</v>
@@ -16524,7 +16524,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M210" t="n">
         <v>0</v>
@@ -16593,7 +16593,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C211" t="s">
         <v>16</v>
@@ -16621,13 +16621,13 @@
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
         <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O211" t="s">
         <v>42</v>
@@ -16662,7 +16662,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C212" t="s">
         <v>16</v>
@@ -16690,13 +16690,13 @@
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M212" t="n">
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O212" t="s">
         <v>42</v>
@@ -16731,7 +16731,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C213" t="s">
         <v>16</v>
@@ -16759,13 +16759,13 @@
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O213" t="s">
         <v>42</v>
@@ -16800,7 +16800,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C214" t="s">
         <v>16</v>
@@ -16869,7 +16869,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C215" t="s">
         <v>16</v>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O215" t="s">
         <v>42</v>
@@ -16938,7 +16938,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O216" t="s">
         <v>42</v>
@@ -17007,7 +17007,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
@@ -17035,13 +17035,13 @@
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M217" t="n">
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>0.00199999999999889</v>
+        <v>0.00200000000000244</v>
       </c>
       <c r="O217" t="s">
         <v>42</v>
@@ -17076,7 +17076,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C218" t="s">
         <v>16</v>
@@ -17104,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M218" t="n">
         <v>0</v>
@@ -17145,7 +17145,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C219" t="s">
         <v>16</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00199999999999889</v>
       </c>
       <c r="O219" t="s">
         <v>42</v>
@@ -17214,7 +17214,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C220" t="s">
         <v>16</v>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O220" t="s">
         <v>42</v>
@@ -17283,7 +17283,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C221" t="s">
         <v>16</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O221" t="s">
         <v>42</v>
@@ -17352,7 +17352,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C222" t="s">
         <v>16</v>
@@ -17380,13 +17380,13 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O222" t="s">
         <v>42</v>
@@ -17421,7 +17421,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C223" t="s">
         <v>16</v>
@@ -17449,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -17490,7 +17490,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C224" t="s">
         <v>16</v>
@@ -17518,13 +17518,13 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M224" t="n">
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O224" t="s">
         <v>42</v>
@@ -17559,7 +17559,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C225" t="s">
         <v>16</v>
@@ -17589,13 +17589,13 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>0.00499999999999901</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O225" t="s">
         <v>42</v>
@@ -17630,7 +17630,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C226" t="s">
         <v>16</v>
@@ -17660,13 +17660,13 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0.00999999999999979</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="O226" t="s">
         <v>42</v>
@@ -17701,7 +17701,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C227" t="s">
         <v>16</v>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O227" t="s">
         <v>42</v>
@@ -17772,7 +17772,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C228" t="s">
         <v>16</v>
@@ -17808,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0.00799999999999912</v>
+        <v>0.00900000000000034</v>
       </c>
       <c r="O228" t="s">
         <v>42</v>
@@ -17843,7 +17843,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
@@ -17873,13 +17873,13 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M229" t="n">
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0.00999999999999979</v>
+        <v>0.00900000000000034</v>
       </c>
       <c r="O229" t="s">
         <v>42</v>
@@ -17914,7 +17914,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C230" t="s">
         <v>16</v>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.00400000000000134</v>
+        <v>0</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
@@ -17985,7 +17985,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C231" t="s">
         <v>16</v>
@@ -18015,13 +18015,13 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0150000000000006</v>
+        <v>0.0130000000000017</v>
       </c>
       <c r="O231" t="s">
         <v>42</v>
@@ -18056,7 +18056,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C232" t="s">
         <v>16</v>
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O232" t="s">
         <v>42</v>
@@ -18127,7 +18127,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C233" t="s">
         <v>16</v>
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O233" t="s">
         <v>42</v>
@@ -18198,7 +18198,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C234" t="s">
         <v>16</v>
@@ -18228,13 +18228,13 @@
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0240000000000009</v>
+        <v>0.032</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0250000000000004</v>
+        <v>0.0289999999999999</v>
       </c>
       <c r="O234" t="s">
         <v>42</v>
@@ -18269,7 +18269,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C235" t="s">
         <v>16</v>
@@ -18305,7 +18305,7 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O235" t="s">
         <v>42</v>
@@ -18340,7 +18340,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C236" t="s">
         <v>16</v>
@@ -18370,13 +18370,13 @@
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.00799999999999912</v>
+        <v>0.0080000000000009</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>0.00700000000000145</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O236" t="s">
         <v>42</v>
@@ -18411,7 +18411,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C237" t="s">
         <v>16</v>
@@ -18441,13 +18441,13 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>0.00699999999999967</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O237" t="s">
         <v>42</v>
@@ -18482,7 +18482,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C238" t="s">
         <v>16</v>
@@ -18512,13 +18512,13 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O238" t="s">
         <v>42</v>
@@ -18553,7 +18553,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C239" t="s">
         <v>16</v>
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.0110000000000028</v>
       </c>
       <c r="O239" t="s">
         <v>42</v>
@@ -18624,7 +18624,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C240" t="s">
         <v>16</v>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>0.00300000000000011</v>
+        <v>0.00199999999999889</v>
       </c>
       <c r="O240" t="s">
         <v>42</v>
@@ -18695,7 +18695,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0469999999999988</v>
+        <v>0.0480000000000018</v>
       </c>
       <c r="O241" t="s">
         <v>42</v>
@@ -18766,7 +18766,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C242" t="s">
         <v>16</v>
@@ -18796,13 +18796,13 @@
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0120000000000005</v>
       </c>
       <c r="M242" t="n">
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.0109999999999992</v>
       </c>
       <c r="O242" t="s">
         <v>42</v>
@@ -18837,7 +18837,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C243" t="s">
         <v>16</v>
@@ -18867,13 +18867,13 @@
         <v>0</v>
       </c>
       <c r="L243" t="n">
+        <v>0.00399999999999956</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
         <v>0.00400000000000134</v>
-      </c>
-      <c r="M243" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.00399999999999956</v>
       </c>
       <c r="O243" t="s">
         <v>42</v>
@@ -18908,7 +18908,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C244" t="s">
         <v>16</v>
@@ -18938,13 +18938,13 @@
         <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M244" t="n">
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>0.00199999999999889</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O244" t="s">
         <v>42</v>
@@ -18979,7 +18979,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C245" t="s">
         <v>16</v>
@@ -19009,13 +19009,13 @@
         <v>0</v>
       </c>
       <c r="L245" t="n">
-        <v>0.016</v>
+        <v>0.0200000000000014</v>
       </c>
       <c r="M245" t="n">
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0179999999999989</v>
+        <v>0.0190000000000019</v>
       </c>
       <c r="O245" t="s">
         <v>42</v>
@@ -19050,7 +19050,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C246" t="s">
         <v>16</v>
@@ -19080,13 +19080,13 @@
         <v>0</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0120000000000005</v>
+        <v>0.0119999999999987</v>
       </c>
       <c r="M246" t="n">
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0119999999999987</v>
+        <v>0.0129999999999981</v>
       </c>
       <c r="O246" t="s">
         <v>42</v>
@@ -19121,7 +19121,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C247" t="s">
         <v>16</v>
@@ -19151,13 +19151,13 @@
         <v>0</v>
       </c>
       <c r="L247" t="n">
-        <v>0.00799999999999912</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M247" t="n">
         <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>0.00500000000000078</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O247" t="s">
         <v>42</v>
@@ -19192,7 +19192,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
@@ -19222,13 +19222,13 @@
         <v>0</v>
       </c>
       <c r="L248" t="n">
-        <v>0.00399999999999956</v>
+        <v>0</v>
       </c>
       <c r="M248" t="n">
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O248" t="s">
         <v>42</v>
@@ -19263,7 +19263,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C249" t="s">
         <v>17</v>
@@ -19293,13 +19293,13 @@
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M249" t="n">
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00299999999999656</v>
       </c>
       <c r="O249" t="s">
         <v>42</v>
@@ -19334,7 +19334,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C250" t="s">
         <v>17</v>
@@ -19364,13 +19364,13 @@
         <v>0</v>
       </c>
       <c r="L250" t="n">
-        <v>0.00400000000000134</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M250" t="n">
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O250" t="s">
         <v>42</v>
@@ -19405,7 +19405,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C251" t="s">
         <v>17</v>
@@ -19435,13 +19435,13 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.0080000000000009</v>
       </c>
       <c r="M251" t="n">
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>0.00200000000000067</v>
+        <v>0.00700000000000145</v>
       </c>
       <c r="O251" t="s">
         <v>42</v>
@@ -19476,7 +19476,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C252" t="s">
         <v>17</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="N252" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O252" t="s">
         <v>42</v>
@@ -19547,7 +19547,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C253" t="s">
         <v>17</v>
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0170000000000012</v>
+        <v>0.0169999999999995</v>
       </c>
       <c r="O253" t="s">
         <v>42</v>
@@ -19618,7 +19618,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C254" t="s">
         <v>17</v>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="N254" t="n">
-        <v>0.00299999999999834</v>
+        <v>0.00300000000000011</v>
       </c>
       <c r="O254" t="s">
         <v>42</v>
@@ -19689,7 +19689,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C255" t="s">
         <v>17</v>
@@ -19719,13 +19719,13 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0080000000000009</v>
+        <v>0.00399999999999956</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>0.00900000000000034</v>
+        <v>0.00600000000000023</v>
       </c>
       <c r="O255" t="s">
         <v>42</v>
@@ -19760,7 +19760,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
@@ -19790,13 +19790,13 @@
         <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="M256" t="n">
         <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00399999999999778</v>
       </c>
       <c r="O256" t="s">
         <v>42</v>
@@ -19831,7 +19831,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C257" t="s">
         <v>17</v>
@@ -19861,13 +19861,13 @@
         <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00799999999999912</v>
       </c>
       <c r="M257" t="n">
         <v>0</v>
       </c>
       <c r="N257" t="n">
-        <v>0.00399999999999956</v>
+        <v>0.00400000000000134</v>
       </c>
       <c r="O257" t="s">
         <v>42</v>
@@ -19902,7 +19902,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>0.032</v>
+        <v>0.0350000000000001</v>
       </c>
       <c r="O258" t="s">
         <v>42</v>
@@ -19973,7 +19973,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C259" t="s">
         <v>17</v>
@@ -20003,13 +20003,13 @@
         <v>0</v>
       </c>
       <c r="L259" t="n">
-        <v>0.032</v>
+        <v>0.0359999999999996</v>
       </c>
       <c r="M259" t="n">
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>0.032</v>
+        <v>0.0330000000000013</v>
       </c>
       <c r="O259" t="s">
         <v>42</v>
@@ -20044,7 +20044,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>0.00600000000000023</v>
+        <v>0.00499999999999901</v>
       </c>
       <c r="O260" t="s">
         <v>42</v>
@@ -20115,7 +20115,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C261" t="s">
         <v>17</v>
@@ -20149,7 +20149,7 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>0</v>
+        <v>0.000999999999997669</v>
       </c>
       <c r="O261" t="s">
         <v>42</v>
@@ -20184,7 +20184,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C262" t="s">
         <v>18</v>
@@ -20214,13 +20214,13 @@
         <v>0</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.048</v>
       </c>
       <c r="M262" t="n">
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0509999999999984</v>
+        <v>0.0500000000000007</v>
       </c>
       <c r="O262" t="s">
         <v>42</v>
@@ -20255,7 +20255,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="n">
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="C263" t="s">
         <v>18</v>
@@ -20291,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0789999999999988</v>
+        <v>0.0790000000000006</v>
       </c>
       <c r="O263" t="s">
         <v>42</v>
